--- a/archivos/Bases de datos/Analisis/db_limpia.xlsx
+++ b/archivos/Bases de datos/Analisis/db_limpia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">result</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -483,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
@@ -491,19 +497,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +531,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -534,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
@@ -1086,16 +1092,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1112,35 +1118,35 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1149,18 +1155,18 @@
         <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1171,47 +1177,47 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1222,30 +1228,30 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -1273,19 +1279,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -1296,35 +1302,35 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -1333,18 +1339,18 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1353,12 +1359,12 @@
         <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1367,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -1375,13 +1381,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1392,13 +1398,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -1409,16 +1415,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -1426,50 +1432,50 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -1477,10 +1483,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -1489,12 +1495,12 @@
         <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -1506,15 +1512,15 @@
         <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1523,12 +1529,12 @@
         <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1545,16 +1551,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
         <v>17</v>
@@ -1562,16 +1568,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E71" t="n">
         <v>17</v>
@@ -1579,16 +1585,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
         <v>17</v>
@@ -1596,7 +1602,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -1608,12 +1614,12 @@
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -1622,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -1630,18 +1636,35 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
         <v>25</v>
       </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="n">
         <v>15</v>
       </c>
     </row>
